--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>1906.95703891636</v>
+        <v>2890.182625420539</v>
       </c>
       <c r="R2">
-        <v>1906.95703891636</v>
+        <v>26011.64362878486</v>
       </c>
       <c r="S2">
-        <v>0.01729328468611177</v>
+        <v>0.02184657628528388</v>
       </c>
       <c r="T2">
-        <v>0.01729328468611177</v>
+        <v>0.02184657628528388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>2269.69747508756</v>
+        <v>3177.653164835514</v>
       </c>
       <c r="R3">
-        <v>2269.69747508756</v>
+        <v>28598.87848351963</v>
       </c>
       <c r="S3">
-        <v>0.02058280484931249</v>
+        <v>0.02401953484294151</v>
       </c>
       <c r="T3">
-        <v>0.02058280484931249</v>
+        <v>0.0240195348429415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>829.0854593699299</v>
+        <v>1281.799837420962</v>
       </c>
       <c r="R4">
-        <v>829.0854593699299</v>
+        <v>11536.19853678866</v>
       </c>
       <c r="S4">
-        <v>0.007518580956678178</v>
+        <v>0.009688985631697556</v>
       </c>
       <c r="T4">
-        <v>0.007518580956678178</v>
+        <v>0.009688985631697556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>1079.295775641646</v>
+        <v>1761.316633098731</v>
       </c>
       <c r="R5">
-        <v>1079.295775641646</v>
+        <v>15851.84969788858</v>
       </c>
       <c r="S5">
-        <v>0.009787619085165677</v>
+        <v>0.01331360096386017</v>
       </c>
       <c r="T5">
-        <v>0.009787619085165677</v>
+        <v>0.01331360096386016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>17113.2329846329</v>
+        <v>18703.04189060647</v>
       </c>
       <c r="R6">
-        <v>17113.2329846329</v>
+        <v>168327.3770154582</v>
       </c>
       <c r="S6">
-        <v>0.1551917551698946</v>
+        <v>0.141374260517721</v>
       </c>
       <c r="T6">
-        <v>0.1551917551698946</v>
+        <v>0.141374260517721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>20368.50380115462</v>
+        <v>20563.33040445469</v>
       </c>
       <c r="R7">
-        <v>20368.50380115462</v>
+        <v>185069.9736400922</v>
       </c>
       <c r="S7">
-        <v>0.1847122550089949</v>
+        <v>0.1554359791693266</v>
       </c>
       <c r="T7">
-        <v>0.1847122550089949</v>
+        <v>0.1554359791693266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>7440.300091097812</v>
+        <v>8294.823947731855</v>
       </c>
       <c r="R8">
-        <v>7440.300091097812</v>
+        <v>74653.41552958669</v>
       </c>
       <c r="S8">
-        <v>0.0674725360874274</v>
+        <v>0.06269967252355062</v>
       </c>
       <c r="T8">
-        <v>0.0674725360874274</v>
+        <v>0.06269967252355062</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>9685.713779048419</v>
+        <v>11397.88831395187</v>
       </c>
       <c r="R9">
-        <v>9685.713779048419</v>
+        <v>102580.9948255669</v>
       </c>
       <c r="S9">
-        <v>0.08783512284286249</v>
+        <v>0.08615539874600955</v>
       </c>
       <c r="T9">
-        <v>0.08783512284286249</v>
+        <v>0.08615539874600954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>10460.14557563062</v>
+        <v>13460.43935114047</v>
       </c>
       <c r="R10">
-        <v>10460.14557563062</v>
+        <v>121143.9541602643</v>
       </c>
       <c r="S10">
-        <v>0.09485807577518623</v>
+        <v>0.1017459978243898</v>
       </c>
       <c r="T10">
-        <v>0.09485807577518623</v>
+        <v>0.1017459978243898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>12449.86935602299</v>
+        <v>14799.27507972073</v>
       </c>
       <c r="R11">
-        <v>12449.86935602299</v>
+        <v>133193.4757174866</v>
       </c>
       <c r="S11">
-        <v>0.1129019325998815</v>
+        <v>0.1118661115572154</v>
       </c>
       <c r="T11">
-        <v>0.1129019325998815</v>
+        <v>0.1118661115572153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>4547.74513671067</v>
+        <v>5969.722750442484</v>
       </c>
       <c r="R12">
-        <v>4547.74513671067</v>
+        <v>53727.50475398235</v>
       </c>
       <c r="S12">
-        <v>0.04124133356129966</v>
+        <v>0.04512448532575335</v>
       </c>
       <c r="T12">
-        <v>0.04124133356129966</v>
+        <v>0.04512448532575335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>5920.212517629741</v>
+        <v>8202.974964092706</v>
       </c>
       <c r="R13">
-        <v>5920.212517629741</v>
+        <v>73826.77467683435</v>
       </c>
       <c r="S13">
-        <v>0.05368758623310761</v>
+        <v>0.06200539604076036</v>
       </c>
       <c r="T13">
-        <v>0.05368758623310761</v>
+        <v>0.06200539604076036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H14">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>5077.075003476859</v>
+        <v>6912.900347715939</v>
       </c>
       <c r="R14">
-        <v>5077.075003476859</v>
+        <v>62216.10312944346</v>
       </c>
       <c r="S14">
-        <v>0.0460415738876633</v>
+        <v>0.05225386225445422</v>
       </c>
       <c r="T14">
-        <v>0.0460415738876633</v>
+        <v>0.05225386225445422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H15">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>6042.833729893488</v>
+        <v>7600.488451803553</v>
       </c>
       <c r="R15">
-        <v>6042.833729893488</v>
+        <v>68404.39606623197</v>
       </c>
       <c r="S15">
-        <v>0.05479957957588269</v>
+        <v>0.05745126598828161</v>
       </c>
       <c r="T15">
-        <v>0.05479957957588269</v>
+        <v>0.0574512659882816</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H16">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>2207.353902374842</v>
+        <v>3065.880496226525</v>
       </c>
       <c r="R16">
-        <v>2207.353902374842</v>
+        <v>27592.92446603873</v>
       </c>
       <c r="S16">
-        <v>0.02001744069623068</v>
+        <v>0.02317465739128887</v>
       </c>
       <c r="T16">
-        <v>0.02001744069623068</v>
+        <v>0.02317465739128887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H17">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>2873.512875246639</v>
+        <v>4212.815570301353</v>
       </c>
       <c r="R17">
-        <v>2873.512875246639</v>
+        <v>37915.34013271217</v>
       </c>
       <c r="S17">
-        <v>0.02605851898430064</v>
+        <v>0.03184421493746557</v>
       </c>
       <c r="T17">
-        <v>0.02605851898430064</v>
+        <v>0.03184421493746557</v>
       </c>
     </row>
   </sheetData>
